--- a/sc2002/src/main/resources/ProjectList.xlsx
+++ b/sc2002/src/main/resources/ProjectList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2024S2\data_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NTUWorkspace\Y1 Y2\Object Oriented Design &amp; Programming\project\sc2002\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021DB320-1F74-47EA-8228-03A02A2055DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD2787-7E6F-4E91-88F0-EBB9B657C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40305" yWindow="8910" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Project Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Application opening date</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>Officer Slot</t>
   </si>
   <si>
@@ -78,10 +75,10 @@
     <t>Yishun</t>
   </si>
   <si>
-    <t>Jessica</t>
-  </si>
-  <si>
     <t>Daniel,Emily</t>
+  </si>
+  <si>
+    <t>Manager id</t>
   </si>
 </sst>
 </file>
@@ -402,19 +399,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="4" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,21 +445,21 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -486,14 +485,14 @@
       <c r="J2" s="1">
         <v>45736</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="K2">
+        <v>9</v>
       </c>
       <c r="L2">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
